--- a/targets/aluminum/RVEproperties.xlsx
+++ b/targets/aluminum/RVEproperties.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dimensions</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Origin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -628,12 +628,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,12 +663,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0x0x0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/targets/aluminum/RVEproperties.xlsx
+++ b/targets/aluminum/RVEproperties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>NumFeatures</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dimensions</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Resolution</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MaxIterations</t>
         </is>
@@ -483,25 +488,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G1/RVE1/postProc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>simulations/aluminum/G1/RVE1/postProc</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3057</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40x40x40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.3x0.3x0.3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>0x0x0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.3x0.3x0.3</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -518,25 +526,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G1/RVE2/postProc</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+          <t>simulations/aluminum/G1/RVE2/postProc</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2746</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40x40x40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.3x0.3x0.3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>0x0x0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.3x0.3x0.3</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -553,270 +564,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G1/RVE3/postProc</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>simulations/aluminum/G1/RVE3/postProc</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40x40x40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.3x0.3x0.3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>0x0x0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.3x0.3x0.3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RVE4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G1/RVE4/postProc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.3x0.3x0.3</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RVE5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G1/RVE5/postProc</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>40x40x40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.3x0.3x0.3</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RVE1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G2/RVE1/postProc</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.4x0.4x0.4</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RVE2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G2/RVE2/postProc</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.4x0.4x0.4</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RVE3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G2/RVE3/postProc</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.4x0.4x0.4</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RVE4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G2/RVE4/postProc</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.4x0.4x0.4</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>RVE5</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C:\Users\springnuance\Desktop\RVE-Micromechanics-Project/simulations/aluminum/G2/RVE5/postProc</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x0x0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50x50x50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.4x0.4x0.4</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="H4" t="n">
         <v>100000</v>
       </c>
     </row>
